--- a/相关数据/题库/cpi.tk.xlsx
+++ b/相关数据/题库/cpi.tk.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wangyaohui\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="4470"/>
+    <workbookView xWindow="4095" yWindow="315" windowWidth="10830" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -722,27 +717,12 @@
     <t>NR</t>
   </si>
   <si>
-    <t>我喜欢参加公众集会，目的是为了同别人在一起。</t>
-  </si>
-  <si>
     <t>我觉得我父亲是个理想的人。</t>
   </si>
   <si>
-    <t>一个人需要不时地“显示”一下自己。</t>
-  </si>
-  <si>
-    <t>同别人在一块时，我通常去做对其他人有益的事，而不是光提意见建议。</t>
-  </si>
-  <si>
     <t>我常常觉得在专业选择上自己犯了个错误。</t>
   </si>
   <si>
-    <t>我一贯遵守这样一条原则：先工作，后娱乐。</t>
-  </si>
-  <si>
-    <t>我有时会感到好象就要发生什么可怕的事情，这种感觉一周内有好几次。</t>
-  </si>
-  <si>
     <t>我希望当一名记者。</t>
   </si>
   <si>
@@ -752,12 +732,6 @@
     <t>我曾有过非常独特、奇异的体验。</t>
   </si>
   <si>
-    <t>总的来看，穷人比富人境况好。</t>
-  </si>
-  <si>
-    <t>我一听到自己熟悉的人获得成功，就象自己失败了一样。</t>
-  </si>
-  <si>
     <t>我希望当服装设计师。</t>
   </si>
   <si>
@@ -773,39 +747,18 @@
     <t>我感到很难开口同陌生人交谈。</t>
   </si>
   <si>
-    <t>一觉得有人注视我，我就会变得紧张。</t>
-  </si>
-  <si>
-    <t>如果人们能够掌握所有实际情况，对大多数问题来说，只有一个正确的答案。</t>
-  </si>
-  <si>
     <t>有时我装作比我实际懂得多的样子。</t>
   </si>
   <si>
-    <t>为公共事务操心，一点用处也没有，反正自己的所作所为对公共事务毫无影响。</t>
-  </si>
-  <si>
-    <t>有时我真想摔瓶摔碗，发泄一下。</t>
-  </si>
-  <si>
     <t>不应该让妇女单独在酒馆里喝酒。</t>
   </si>
   <si>
-    <t>如果某人冤枉了我，我觉得只要有可能就该批评他，这样做的目的是为了维护原则。</t>
-  </si>
-  <si>
-    <t>我好象和周围的大多数人一样聪明能干。</t>
-  </si>
-  <si>
     <t>我希望拥有支配他人的权力。</t>
   </si>
   <si>
     <t>我感到很难集中精力去完成一项工作。</t>
   </si>
   <si>
-    <t>一想到别人不赞同我，我就变得非常紧张、焦虑。</t>
-  </si>
-  <si>
     <t>许多人的困难在于他们办事不够认真严肃。</t>
   </si>
   <si>
@@ -818,150 +771,60 @@
     <t>有时我真想骂街。</t>
   </si>
   <si>
-    <t>我肯定，世界上纯粹、真正的宗教只有一种。</t>
-  </si>
-  <si>
-    <t>听到下流的故事时，我感到窘迫。</t>
-  </si>
-  <si>
     <t>我有时为避开和某人相遇而穿过马路。</t>
   </si>
   <si>
     <t>我过去常写日记。</t>
   </si>
   <si>
-    <t>应该和少数民族搞好团结，但这件事与我无关。</t>
-  </si>
-  <si>
     <t>我感到很难向任何人谈及自己的情况。</t>
   </si>
   <si>
-    <t>我们应该为自己的国家担忧，让世界上其他国家自己管理自己。</t>
-  </si>
-  <si>
-    <t>我经常感到好象整个世界对我毫不在意，在飘然而去。</t>
-  </si>
-  <si>
-    <t>我感到厌烦的时候，喜欢挑起刺激性的事端。</t>
-  </si>
-  <si>
     <t>我喜欢不时地夸耀一下自己取得的成绩。</t>
   </si>
   <si>
     <t>我害怕深水。</t>
   </si>
   <si>
-    <t>必须承认，我常常想方设法按自己的方式行事，丝毫不考虑别人可能要做什么。</t>
-  </si>
-  <si>
     <t>我觉得自己希望当汽车修理工。</t>
   </si>
   <si>
-    <t>在正式的舞会或集会上，我总感到紧张和不舒适。</t>
-  </si>
-  <si>
-    <t>我不愿意看到人们穿戴邋邋遢遢，过于随便。</t>
-  </si>
-  <si>
-    <t>我每周会有一次或多次觉得突然浑身发烧，却没有明显的原因。</t>
-  </si>
-  <si>
     <t>有时我觉得一切都糟糕得不愿张口提及。</t>
   </si>
   <si>
-    <t>如果一切照现在这个样子继续下去，人们很难期望会发生什么了不起的事。</t>
-  </si>
-  <si>
     <t>我无法使自己的思想集中到某一件事上。</t>
   </si>
   <si>
-    <t>必须承认，我经常对工作能少干就少干。</t>
-  </si>
-  <si>
     <t>我喜欢成为人们注意的中心。</t>
   </si>
   <si>
-    <t>单独走进别人正在聚集聊天的房间，我并不感到害怕。</t>
-  </si>
-  <si>
     <t>有时我非常泄气。</t>
   </si>
   <si>
-    <t>想到自己会遭受车祸，我很害怕。</t>
-  </si>
-  <si>
-    <t>和大家在一起的时候，我总想不出恰当的话来说。</t>
-  </si>
-  <si>
-    <t>中学教师总抱怨他们的收入少，但我认为他们也就该挣这么多钱。</t>
-  </si>
-  <si>
     <t>有时我真想与某人动手打一架。</t>
   </si>
   <si>
     <t>听那种没有自己主见的人讲课很令人讨厌。</t>
   </si>
   <si>
-    <t>一个人倘若事先把一切活动都安排好，他很可能会把生活中的乐趣全部剥夺掉。</t>
-  </si>
-  <si>
-    <t>过去念书时，我接受知识很慢。</t>
-  </si>
-  <si>
     <t>我喜欢诗歌。</t>
   </si>
   <si>
-    <t>我不喜欢与别人说话，除非他们先开口。</t>
-  </si>
-  <si>
     <t>我觉得自己希望骑一辆赛车。</t>
   </si>
   <si>
-    <t>有时没有任何原因，甚至当一切很糟糕的时候，我反而又激动又高兴，感到万事如意。</t>
-  </si>
-  <si>
-    <t>我一生的目的之一，就是完成某件我母亲可以引为自豪的工作。</t>
-  </si>
-  <si>
-    <t>我很容易恋爱，也很容易失恋。</t>
-  </si>
-  <si>
-    <t>只要不犯法，回避法律条款也没什么不好。</t>
-  </si>
-  <si>
     <t>现在做父母的对子女管教太松。</t>
   </si>
   <si>
     <t>我很怕黑暗。</t>
   </si>
   <si>
-    <t>碰到困难的问题，我往往容易打退堂鼓。</t>
-  </si>
-  <si>
-    <t>别人的批评和训斥，使我很不舒服。</t>
-  </si>
-  <si>
     <t>我有一些奇特、少有的念头。</t>
   </si>
   <si>
-    <t>身体不舒服的时候，我容易生气发火。</t>
-  </si>
-  <si>
-    <t>我患有漫游癖，只有在闭逛旅游时，我才感到愉快。</t>
-  </si>
-  <si>
-    <t>我常常发现，在试图做某件事的时候，我的手在发抖。</t>
-  </si>
-  <si>
-    <t>假如迫不得已，非要见很多人的话，我感到很紧张。</t>
-  </si>
-  <si>
     <t>我希望听到著名歌手在歌剧中演唱。</t>
   </si>
   <si>
-    <t>有时没有任何充分的理由，我就生气、发脾气。</t>
-  </si>
-  <si>
     <t>我喜欢参加社交聚会和联欢会。</t>
   </si>
   <si>
@@ -974,75 +837,27 @@
     <t>过去我的家庭生活一直很幸福。</t>
   </si>
   <si>
-    <t>我往往凭一时冲动，鲁莽行事，而没有停下来思考一下。</t>
-  </si>
-  <si>
     <t>我做事的方法常易被人误解。</t>
   </si>
   <si>
-    <t>有时，我突然感到一阵晕眩，所干的事情被打断，周围发生的一切都不知道。</t>
-  </si>
-  <si>
-    <t>某人为我做了一件好事，我常常自问其背后隐藏的动机是什么。</t>
-  </si>
-  <si>
     <t>我确实缺乏自信心。</t>
   </si>
   <si>
-    <t>当某人招致不幸时，其他人大都暗自高兴。</t>
-  </si>
-  <si>
-    <t>假如在某个群众团体工作，我喜欢担任领导职务。</t>
-  </si>
-  <si>
-    <t>有时我觉得好象非要伤害自己或伤害他人。</t>
-  </si>
-  <si>
-    <t>我有不少份外的事要操心。</t>
-  </si>
-  <si>
-    <t>我常常只图一时快乐，即使这样做有损于长远目标也在所不惜。</t>
-  </si>
-  <si>
-    <t>除非与我熟知的人在一起，我一般不爱多说话。</t>
-  </si>
-  <si>
     <t>我记得自己曾经为了摆脱某件事而假装生病。</t>
   </si>
   <si>
-    <t>碰到一位陌生人，我常常感到他比我强。</t>
-  </si>
-  <si>
     <t>我喜欢让别人去猜测我下一步将干什么。</t>
   </si>
   <si>
-    <t>和众人在一起时，假如让我主持一个讨论或就我熟知的事情发表意见，我不会觉得难为情的。</t>
-  </si>
-  <si>
-    <t>事情出了差错，我有时责怪他人。</t>
-  </si>
-  <si>
     <t>我更喜欢自己下了赌注的比赛或游戏。</t>
   </si>
   <si>
-    <t>我常常发现，别人嫉妒我的好主意，就是因为他们没有先想到这些主意。</t>
-  </si>
-  <si>
     <t>我喜欢参加社交集会和其他热热闹闹的活动。</t>
   </si>
   <si>
     <t>我爱打猎。</t>
   </si>
   <si>
-    <t>当独自一个人的时候，我发现自己常常在琢磨一些抽象的问题，比如：自由意志、邪恶等等。</t>
-  </si>
-  <si>
-    <t>听到有人被非法地阻止参加选举，我非常气愤。</t>
-  </si>
-  <si>
-    <t>我从前上学时，有时因为惹老师生气被送去见班主任。</t>
-  </si>
-  <si>
     <t>我希望当一名图书管理员。</t>
   </si>
   <si>
@@ -1052,51 +867,21 @@
     <t>多数人从内心里并不愿意花力气帮助他人。</t>
   </si>
   <si>
-    <t>人们装出他们互相很关心，而实际上并非如此。</t>
-  </si>
-  <si>
     <t>多数人在性的问题上忧虑过多。</t>
   </si>
   <si>
     <t>遇到不熟悉的人我很难想出什么话题来说。</t>
   </si>
   <si>
-    <t>我很喜欢对称的东西，而不喜欢不对称的东西。</t>
-  </si>
-  <si>
-    <t>我宁愿做一名踏踏实实、可以信赖的人，而不愿做一名才华横溢而见异思迁的人。</t>
-  </si>
-  <si>
-    <t>一有机会，我总爱以某种方式显露一下自己。</t>
-  </si>
-  <si>
-    <t>对某些问题，我太容易动肝火，所以无法谈论它们。</t>
-  </si>
-  <si>
-    <t>有时候，我好象简直无力开展工作。</t>
-  </si>
-  <si>
-    <t>若有人没有把贵重物品妥善保管，使其成为诱饵，一旦该物被偷了的话，则放物的人和小偷应受到同样的谴责。</t>
-  </si>
-  <si>
     <t>我同什么样的人都合得来。</t>
   </si>
   <si>
     <t>我常常被不断涌现又毫无意义的思想所烦忧。</t>
   </si>
   <si>
-    <t>假如我是记者，我很希望报道有关剧院的新闻。</t>
-  </si>
-  <si>
-    <t>男人与女人在一起的时候，总想取得女人的好感。</t>
-  </si>
-  <si>
     <t>我喜欢看指导人们亲自动手做事情的杂志。</t>
   </si>
   <si>
-    <t>必须承认，我感到很难在严格的规章制度下工作。</t>
-  </si>
-  <si>
     <t>我喜欢盛大喧闹的聚会。</t>
   </si>
   <si>
@@ -1106,39 +891,15 @@
     <t>只有傻子才试图改变我们中国人的生活方式。</t>
   </si>
   <si>
-    <t>我常常感到好象做了什么错误的或邪恶的事。</t>
-  </si>
-  <si>
-    <t>以前上学时，我感到很难在全班同学面前讲话。</t>
-  </si>
-  <si>
     <t>我通常感到人生很有价值。</t>
   </si>
   <si>
-    <t>我们应该离开非洲国家，以便澄清他们的问题，我们没有任何理由去帮助他们。</t>
-  </si>
-  <si>
-    <t>有几次，我对某个人很刻薄。</t>
-  </si>
-  <si>
-    <t>我觉得多数人会为了超过他人而说慌。</t>
-  </si>
-  <si>
-    <t>我爱自己讲话，而不爱听别人讲话。</t>
-  </si>
-  <si>
     <t>我喜欢科学。</t>
   </si>
   <si>
     <t>我常常发脾气。</t>
   </si>
   <si>
-    <t>必须承认，搬到一个陌生的地方去我会有些害怕。</t>
-  </si>
-  <si>
-    <t>在公共场所，比如在公共汽车上或在商店里，我对盯着我瞧的人感到很烦恼。</t>
-  </si>
-  <si>
     <t>我自信知道应怎样解决我们今天所面临的国际问题。</t>
   </si>
   <si>
@@ -1148,9 +909,6 @@
     <t>我很少和家里人吵架。</t>
   </si>
   <si>
-    <t>买东西时，如果多找给了我钱，我总是把钱送回去。</t>
-  </si>
-  <si>
     <t>我常常厌恶自己。</t>
   </si>
   <si>
@@ -1160,48 +918,21 @@
     <t>我喜欢阅读科学方面的书籍。</t>
   </si>
   <si>
-    <t>和大家在一起时，我很难表现得自然。</t>
-  </si>
-  <si>
-    <t>有些游戏，我根本不参加，因为我不擅长。</t>
-  </si>
-  <si>
     <t>我希望加入某个合唱团。</t>
   </si>
   <si>
-    <t>小时候，我常因表现不好受到严厉的惩罚。</t>
-  </si>
-  <si>
-    <t>有时，我在实际上无足轻重的事上绞尽了脑汁。</t>
-  </si>
-  <si>
     <t>我觉得自己常常无缘无故地受到惩罚。</t>
   </si>
   <si>
     <t>我希望当电影或戏剧演员。</t>
   </si>
   <si>
-    <t>我情愿自己出钱为他人雪冤，尽管我与此案没有牵连。</t>
-  </si>
-  <si>
-    <t>有时候，我真想做件有害的或惊人的事。</t>
-  </si>
-  <si>
     <t>我常常感到身体的某些部分有虫爬、火烧、刺痛和即将麻木的感觉。</t>
   </si>
   <si>
     <t>我常常违背父母的意愿。</t>
   </si>
   <si>
-    <t>假如是我驾驶汽车，我会尽量不让别人超过我。</t>
-  </si>
-  <si>
-    <t>对明明知道不会伤害自己的事物和人，我也曾感到很害  怕。</t>
-  </si>
-  <si>
-    <t>当年，我父母很希望我出类拔萃。</t>
-  </si>
-  <si>
     <t>我愿意把自己说成是一个性格坚强的人。</t>
   </si>
   <si>
@@ -1220,57 +951,15 @@
     <t>我吃什么东西都是一个味。</t>
   </si>
   <si>
-    <t>我做事情常常有始无终，虎头蛇尾。</t>
-  </si>
-  <si>
-    <t>假如一个朋友也没有，我也会很愉快。</t>
-  </si>
-  <si>
-    <t>当我出于无奈去向某人讨个职业时，会感到很紧张。</t>
-  </si>
-  <si>
     <t>我有时做事胆子很小。</t>
   </si>
   <si>
     <t>我常常希望离开家庭。</t>
   </si>
   <si>
-    <t>我的整个脑袋每天好象要疼好长时间。</t>
-  </si>
-  <si>
-    <t>过去在学校里，多数老师对我都很公正和诚恳。</t>
-  </si>
-  <si>
-    <t>必须承认，我讲话很公正。</t>
-  </si>
-  <si>
-    <t>在弄清事实之前，我从不对任何人下结论。</t>
-  </si>
-  <si>
-    <t>假如某人很聪明，从别人身上骗取了一大笔钱，应该允许他拥有这笔钱。</t>
-  </si>
-  <si>
-    <t>如果没有报酬，就不要指望有谁会对社会服务。</t>
-  </si>
-  <si>
-    <t>我家里有好几个人的习惯，既给我添麻烦又添烦恼。</t>
-  </si>
-  <si>
-    <t>必须承认，对于学习新东西，我并没有很强的欲望。</t>
-  </si>
-  <si>
-    <t>好象没有人能理解我。</t>
-  </si>
-  <si>
     <t>我常常自认为是周围人的领导。</t>
   </si>
   <si>
-    <t>老实人要在世界上获得成功，是根本不可能的。</t>
-  </si>
-  <si>
-    <t>我喜欢把一切安排得整整齐齐，井然有序。</t>
-  </si>
-  <si>
     <t>我很讨厌自己的日常生活和工作被意外的事情打扰。</t>
   </si>
   <si>
@@ -1283,140 +972,571 @@
     <t>我有理由嫉妒家里的某一两个人。</t>
   </si>
   <si>
-    <t>如果要以牺牲个人乐趣为代价，那我决不会有意地去帮助别人。</t>
-  </si>
-  <si>
     <t>我参与的辩论或争吵多数是原则问题。</t>
   </si>
   <si>
-    <t>大家公认我是一名勤劳、踏实、愿为大家服务的人。</t>
-  </si>
-  <si>
-    <t>一天到晚，我几乎总是口干舌燥。</t>
-  </si>
-  <si>
-    <t>假如过去从未上过学，多数人的经济状况要比现在好。</t>
-  </si>
-  <si>
-    <t>在辩论中，别人很容易把我驳倒。</t>
-  </si>
-  <si>
     <t>我不喜欢事情总是变化不定、玄不可测。</t>
   </si>
   <si>
     <t>我常饮酒过度。</t>
   </si>
   <si>
-    <t>过去，我想弃家出走。</t>
-  </si>
-  <si>
     <t>生活常常对我很不公平。</t>
   </si>
   <si>
     <t>我认为自己在事非问题上比多数人更严肃认真。</t>
   </si>
   <si>
-    <t>我生来就有影响别人的天赋。</t>
-  </si>
-  <si>
-    <t>我赞成从严加强法制，不论其后果如何。</t>
-  </si>
-  <si>
     <t>人们常常在背后说我的坏话。</t>
   </si>
   <si>
-    <t>我有几种坏习气很根深蒂固，所以要想克服它们，只是白费劲儿。</t>
-  </si>
-  <si>
     <t>我总想把自己的工作计划组织好。</t>
   </si>
   <si>
-    <t>一周有几次，由于胃酸过多，我感到不舒服。</t>
-  </si>
-  <si>
-    <t>我喜欢对别人加以指点，把工作开展起来。</t>
-  </si>
-  <si>
-    <t>我对家里几个人所做的那种工作，感到很难为情。</t>
+    <t>我和不熟悉的人在一起感到难为情。</t>
+  </si>
+  <si>
+    <t>我有突然感到恶心、呕吐的毛病。</t>
+  </si>
+  <si>
+    <t>我常常在半夜里受到恐吓而惊醒。</t>
+  </si>
+  <si>
+    <t>许多人的毛病在于他们对事物不够认真。</t>
+  </si>
+  <si>
+    <t>我不是那种适合当政治领袖的人。</t>
+  </si>
+  <si>
+    <t>我父母过去从未真正理解过我。</t>
+  </si>
+  <si>
+    <t>我好像和周围的大多数人一样聪明能干。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时我觉得好像非要伤害自己或伤害他人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我常常感到好像做了什么错误的或邪恶的事。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像没有人能理解我。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的整个脑袋每天好像要疼好长时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的生活常常好像毫无意义。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我生来就有影响别人的天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢参加公众集会,目的是为了同别人在一起。</t>
+  </si>
+  <si>
+    <t>我一贯遵守这样一条原则：先工作,后娱乐。</t>
+  </si>
+  <si>
+    <t>我有时会感到好像就要发生什么可怕的事情,这种感觉一周内有好几次。</t>
+  </si>
+  <si>
+    <t>总的来看,穷人比富人境况好。</t>
+  </si>
+  <si>
+    <t>我一听到自己熟悉的人获得成功,就像自己失败了一样。</t>
+  </si>
+  <si>
+    <t>一觉得有人注视我,我就会变得紧张。</t>
+  </si>
+  <si>
+    <t>如果人们能够掌握所有实际情况,对大多数问题来说,只有一个正确的答案。</t>
+  </si>
+  <si>
+    <t>为公共事务操心,一点用处也没有,反正自己的所作所为对公共事务毫无影响。</t>
+  </si>
+  <si>
+    <t>有时我真想摔瓶摔碗,发泄一下。</t>
+  </si>
+  <si>
+    <t>如果某人冤枉了我,我觉得只要有可能就该批评他,这样做的目的是为了维护原则。</t>
+  </si>
+  <si>
+    <t>一想到别人不赞同我,我就变得非常紧张、焦虑。</t>
+  </si>
+  <si>
+    <t>我肯定,世界上纯粹、真正的宗教只有一种。</t>
+  </si>
+  <si>
+    <t>听到下流的故事时,我感到窘迫。</t>
+  </si>
+  <si>
+    <t>应该和少数民族搞好团结,但这件事与我无关。</t>
+  </si>
+  <si>
+    <t>我们应该为自己的国家担忧,让世界上其他国家自己管理自己。</t>
+  </si>
+  <si>
+    <t>我经常感到好像整个世界对我毫不在意,在飘然而去。</t>
+  </si>
+  <si>
+    <t>我感到厌烦的时候,喜欢挑起刺激性的事端。</t>
+  </si>
+  <si>
+    <t>必须承认,我常常想方设法按自己的方式行事,丝毫不考虑别人可能要做什么。</t>
+  </si>
+  <si>
+    <t>在正式的舞会或集会上,我总感到紧张和不舒适。</t>
+  </si>
+  <si>
+    <t>我不愿意看到人们穿戴邋邋遢遢,过于随便。</t>
+  </si>
+  <si>
+    <t>我每周会有一次或多次觉得突然浑身发烧,却没有明显的原因。</t>
+  </si>
+  <si>
+    <t>如果一切照现在这个样子继续下去,人们很难期望会发生什么了不起的事。</t>
+  </si>
+  <si>
+    <t>必须承认,我经常对工作能少干就少干。</t>
+  </si>
+  <si>
+    <t>单独走进别人正在聚集聊天的房间,我并不感到害怕。</t>
+  </si>
+  <si>
+    <t>想到自己会遭受车祸,我很害怕。</t>
+  </si>
+  <si>
+    <t>和大家在一起的时候,我总想不出恰当的话来说。</t>
+  </si>
+  <si>
+    <t>中学教师总抱怨他们的收入少,但我认为他们也就该挣这么多钱。</t>
+  </si>
+  <si>
+    <t>一个人倘若事先把一切活动都安排好,他很可能会把生活中的乐趣全部剥夺掉。</t>
+  </si>
+  <si>
+    <t>过去念书时,我接受知识很慢。</t>
+  </si>
+  <si>
+    <t>我不喜欢与别人说话,除非他们先开口。</t>
+  </si>
+  <si>
+    <t>有时没有任何原因,甚至当一切很糟糕的时候,我反而又激动又高兴,感到万事如意。</t>
+  </si>
+  <si>
+    <t>我一生的目的之一,就是完成某件我母亲可以引为自豪的工作。</t>
+  </si>
+  <si>
+    <t>我很容易恋爱,也很容易失恋。</t>
+  </si>
+  <si>
+    <t>只要不犯法,回避法律条款也没什么不好。</t>
+  </si>
+  <si>
+    <t>碰到困难的问题,我往往容易打退堂鼓。</t>
+  </si>
+  <si>
+    <t>别人的批评和训斥,使我很不舒服。</t>
+  </si>
+  <si>
+    <t>身体不舒服的时候,我容易生气发火。</t>
+  </si>
+  <si>
+    <t>我常常发现,在试图做某件事的时候,我的手在发抖。</t>
+  </si>
+  <si>
+    <t>假如迫不得已,非要见很多人的话,我感到很紧张。</t>
+  </si>
+  <si>
+    <t>有时没有任何充分的理由,我就生气、发脾气。</t>
+  </si>
+  <si>
+    <t>我往往凭一时冲动,鲁莽行事,而没有停下来思考一下。</t>
+  </si>
+  <si>
+    <t>有时,我突然感到一阵晕眩,所干的事情被打断,周围发生的一切都不知道。</t>
+  </si>
+  <si>
+    <t>某人为我做了一件好事,我常常自问其背后隐藏的动机是什么。</t>
+  </si>
+  <si>
+    <t>当某人招致不幸时,其他人大都暗自高兴。</t>
+  </si>
+  <si>
+    <t>假如在某个群众团体工作,我喜欢担任领导职务。</t>
+  </si>
+  <si>
+    <t>我常常只图一时快乐,即使这样做有损于长远目标也在所不惜。</t>
+  </si>
+  <si>
+    <t>除非与我熟知的人在一起,我一般不爱多说话。</t>
+  </si>
+  <si>
+    <t>碰到一位陌生人,我常常感到他比我强。</t>
+  </si>
+  <si>
+    <t>事情出了差错,我有时责怪他人。</t>
+  </si>
+  <si>
+    <t>我常常发现,别人嫉妒我的好主意,就是因为他们没有先想到这些主意。</t>
+  </si>
+  <si>
+    <t>当独自一个人的时候,我发现自己常常在琢磨一些抽象的问题,比如：自由意志、邪恶等等。</t>
+  </si>
+  <si>
+    <t>听到有人被非法地阻止参加选举,我非常气愤。</t>
+  </si>
+  <si>
+    <t>我从前上学时,有时因为惹老师生气被送去见班主任。</t>
+  </si>
+  <si>
+    <t>人们装出他们互相很关心,而实际上并非如此。</t>
+  </si>
+  <si>
+    <t>我很喜欢对称的东西,而不喜欢不对称的东西。</t>
+  </si>
+  <si>
+    <t>我宁愿做一名踏踏实实、可以信赖的人,而不愿做一名才华横溢而见异思迁的人。</t>
+  </si>
+  <si>
+    <t>一有机会,我总爱以某种方式显露一下自己。</t>
+  </si>
+  <si>
+    <t>对某些问题,我太容易动肝火,所以无法谈论它们。</t>
+  </si>
+  <si>
+    <t>有时候,我好像简直无力开展工作。</t>
+  </si>
+  <si>
+    <t>若有人没有把贵重物品妥善保管,使其成为诱饵,一旦该物被偷了的话,则放物的人和小偷应受到同样的谴责。</t>
+  </si>
+  <si>
+    <t>假如我是记者,我很希望报道有关剧院的新闻。</t>
+  </si>
+  <si>
+    <t>男人与女人在一起的时候,总想取得女人的好感。</t>
+  </si>
+  <si>
+    <t>必须承认,我感到很难在严格的规章制度下工作。</t>
+  </si>
+  <si>
+    <t>以前上学时,我感到很难在全班同学面前讲话。</t>
+  </si>
+  <si>
+    <t>我们应该离开非洲国家,以便澄清他们的问题,我们没有任何理由去帮助他们。</t>
+  </si>
+  <si>
+    <t>有几次,我对某个人很刻薄。</t>
+  </si>
+  <si>
+    <t>我爱自己讲话,而不爱听别人讲话。</t>
+  </si>
+  <si>
+    <t>必须承认,搬到一个陌生的地方去我会有些害怕。</t>
+  </si>
+  <si>
+    <t>在公共场所,比如在公共汽车上或在商店里,我对盯着我瞧的人感到很烦恼。</t>
+  </si>
+  <si>
+    <t>买东西时,如果多找给了我钱,我总是把钱送回去。</t>
+  </si>
+  <si>
+    <t>和大家在一起时,我很难表现得自然。</t>
+  </si>
+  <si>
+    <t>有些游戏,我根本不参加,因为我不擅长。</t>
+  </si>
+  <si>
+    <t>小时候,我常因表现不好受到严厉的惩罚。</t>
+  </si>
+  <si>
+    <t>有时,我在实际上无足轻重的事上绞尽了脑汁。</t>
+  </si>
+  <si>
+    <t>我情愿自己出钱为他人雪冤,尽管我与此案没有牵连。</t>
+  </si>
+  <si>
+    <t>有时候,我真想做件有害的或惊人的事。</t>
+  </si>
+  <si>
+    <t>假如是我驾驶汽车,我会尽量不让别人超过我。</t>
+  </si>
+  <si>
+    <t>对明明知道不会伤害自己的事物和人,我也曾感到很害怕。</t>
+  </si>
+  <si>
+    <t>当年,我父母很希望我出类拔萃。</t>
+  </si>
+  <si>
+    <t>我做事情常常有始无终,虎头蛇尾。</t>
+  </si>
+  <si>
+    <t>假如一个朋友也没有,我也会很愉快。</t>
+  </si>
+  <si>
+    <t>过去在学校里,多数老师对我都很公正和诚恳。</t>
+  </si>
+  <si>
+    <t>必须承认,我讲话很公正。</t>
+  </si>
+  <si>
+    <t>在弄清事实之前,我从不对任何人下结论。</t>
+  </si>
+  <si>
+    <t>假如某人很聪明,从别人身上骗取了一大笔钱,应该允许他拥有这笔钱。</t>
+  </si>
+  <si>
+    <t>如果没有报酬,就不要指望有谁会对社会服务。</t>
+  </si>
+  <si>
+    <t>我家里有好几个人的习惯,既给我添麻烦又添烦恼。</t>
+  </si>
+  <si>
+    <t>必须承认,对于学习新东西,我并没有很强的欲望。</t>
+  </si>
+  <si>
+    <t>老实人要在世界上获得成功,是根本不可能的。</t>
+  </si>
+  <si>
+    <t>我喜欢把一切安排得整整齐齐,井然有序。</t>
+  </si>
+  <si>
+    <t>如果要以牺牲个人乐趣为代价,那我决不会有意地去帮助别人。</t>
+  </si>
+  <si>
+    <t>一天到晚,我几乎总是口干舌燥。</t>
+  </si>
+  <si>
+    <t>假如过去从未上过学,多数人的经济状况要比现在好。</t>
+  </si>
+  <si>
+    <t>在辩论中,别人很容易把我驳倒。</t>
+  </si>
+  <si>
+    <t>过去,我想弃家出走。</t>
+  </si>
+  <si>
+    <t>我赞成从严加强法制,不论其后果如何。</t>
+  </si>
+  <si>
+    <t>我有几种坏习气很根深蒂固,所以要想克服它们,只是白费劲儿。</t>
+  </si>
+  <si>
+    <t>一周有几次,由于胃酸过多,我感到不舒服。</t>
+  </si>
+  <si>
+    <t>我喜欢对别人加以指点,把工作开展起来。</t>
+  </si>
+  <si>
+    <t>我对家里几个人所做的那种工作,感到很难为情。</t>
+  </si>
+  <si>
+    <t>只要工资高,什么工作对我来说都很好。</t>
+  </si>
+  <si>
+    <t>年轻时,我有时偷别人的东西。</t>
+  </si>
+  <si>
+    <t>事情一旦不顺利,我就想马上打退堂鼓。</t>
+  </si>
+  <si>
+    <t>过去和我关系密切,同时是我在儿童时代最崇拜的人,是一位女性（母亲、姐妹、姑姨或其他女性）。</t>
+  </si>
+  <si>
+    <t>我常常感到内疚,因为我曾装作对某事后悔莫及,而实际上并非如此。</t>
+  </si>
+  <si>
+    <t>有几次,我生气极了。</t>
+  </si>
+  <si>
+    <t>小时候,我们家不像大多数人家那样安定、平静。</t>
+  </si>
+  <si>
+    <t>家里有些人做的事,使我胆颤心惊。</t>
+  </si>
+  <si>
+    <t>小时候上学时,我常给老师添许多麻烦。</t>
+  </si>
+  <si>
+    <t>假如工钱合理,我希望和一家马戏团或流动曲艺团一道巡回演出。</t>
+  </si>
+  <si>
+    <t>过去,我们一家相互之间总是亲热异常。</t>
+  </si>
+  <si>
+    <t>别人在做出决策之前,都似乎很自然地找我征求意见。</t>
+  </si>
+  <si>
+    <t>我对自己要求很高,并且觉得别人也该照着去做。</t>
+  </si>
+  <si>
+    <t>一个人假如谁也不信任,生活就会忧郁得多。</t>
+  </si>
+  <si>
+    <t>那些对事情缺乏信心、无把握的人,使我感到不舒服。</t>
+  </si>
+  <si>
+    <t>一个人需要不时地"显示"一下自己。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同别人在一块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时,我通常去做对其他人有益的事,而不是光提意见建议。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我患有漫游癖,只有在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逛旅游时,我才感到愉快。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有不少分外的事要操心。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我觉得多数人会为了超过他人而说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大家公认我是一名勤劳、踏实、愿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为大家服务的人。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>假如看到几个孩子打另一个小孩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,我一定会设法制止他们。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>我觉得别人看上去比我幸福。</t>
-  </si>
-  <si>
-    <t>只要工资高，什么工作对我来说都很好。</t>
-  </si>
-  <si>
-    <t>我和不熟悉的人在一起感到难为情。</t>
-  </si>
-  <si>
-    <t>我的生活常常好象毫无意义。</t>
-  </si>
-  <si>
-    <t>年轻时，我有时偷别人的东西。</t>
-  </si>
-  <si>
-    <t>事情一旦不顺利，我就想马上打退堂鼓。</t>
-  </si>
-  <si>
-    <t>过去和我关系密切，同时是我在儿童时代最崇拜的人，是一位女性（母亲、姐妹、姑姨或其他女性）。</t>
-  </si>
-  <si>
-    <t>我常常感到内疚，因为我曾装作对某事后悔莫及，而实际上并非如此。</t>
-  </si>
-  <si>
-    <t>有几次，我生气极了。</t>
-  </si>
-  <si>
-    <t>小时候，我们家不象大多数人家那样安定、平静。</t>
-  </si>
-  <si>
-    <t>家里有些人做的事，使我胆颤心惊。</t>
-  </si>
-  <si>
-    <t>小时候上学时，我常给老师添许多麻烦。</t>
-  </si>
-  <si>
-    <t>假如工钱合理，我希望和一家马戏团或流动曲艺团一道巡回演出。</t>
-  </si>
-  <si>
-    <t>我有突然感到恶心、呕吐的毛病。</t>
-  </si>
-  <si>
-    <t>过去，我们一家相互之间总是亲热异常。</t>
-  </si>
-  <si>
-    <t>我常常在半夜里受到恐吓而惊醒。</t>
-  </si>
-  <si>
-    <t>许多人的毛病在于他们对事物不够认真。</t>
-  </si>
-  <si>
-    <t>我不是那种适合当政治领袖的人。</t>
-  </si>
-  <si>
-    <t>我父母过去从未真正理解过我。</t>
-  </si>
-  <si>
-    <t>假如看到几个孩子打另一个小孩，我一定会设法制止他  们。</t>
-  </si>
-  <si>
-    <t>别人在做出决策之前，都似乎很自然地找我征求意见。</t>
-  </si>
-  <si>
-    <t>我对自己要求很高，并且觉得别人也该照着去做。</t>
-  </si>
-  <si>
-    <t>一个人假如谁也不信任，生活就会忧郁得多。</t>
-  </si>
-  <si>
-    <t>那些对事情缺乏信心、无把握的人，使我感到不舒服。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和众人在一起时,假如让我主持一个讨论或就我熟知的事情发表意见,我不会觉得难为情。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我出于无奈去向某人讨个职业时,会感到很紧张。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,6 +1558,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1465,11 +1591,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1568,7 +1697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1745,7 +1874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1755,11 +1884,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="64.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1774,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1782,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1790,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1798,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1806,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -1814,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1822,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1830,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1838,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1846,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1854,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1862,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -1870,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -1878,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1886,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -1894,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -1902,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1910,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1918,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -1926,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -1934,7 +2067,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>252</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -1942,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -1950,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -1958,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -1966,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -1974,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -1982,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -1990,7 +2123,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -1998,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -2006,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -2014,7 +2147,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -2022,7 +2155,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -2030,7 +2163,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -2038,7 +2171,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -2046,7 +2179,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -2054,7 +2187,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -2062,7 +2195,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -2070,7 +2203,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -2078,7 +2211,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -2086,7 +2219,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -2094,7 +2227,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -2102,7 +2235,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -2110,7 +2243,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -2118,7 +2251,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -2126,7 +2259,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -2134,7 +2267,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -2142,7 +2275,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -2150,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -2158,7 +2291,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -2166,7 +2299,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -2174,7 +2307,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -2182,7 +2315,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>283</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -2190,7 +2323,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -2198,7 +2331,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -2206,7 +2339,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -2214,7 +2347,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -2222,7 +2355,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -2230,7 +2363,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -2238,7 +2371,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -2246,7 +2379,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -2254,7 +2387,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -2262,7 +2395,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>293</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -2270,7 +2403,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -2278,7 +2411,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -2286,7 +2419,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -2294,7 +2427,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -2302,7 +2435,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -2310,7 +2443,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -2318,7 +2451,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -2326,7 +2459,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -2334,7 +2467,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -2342,7 +2475,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -2350,7 +2483,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -2358,7 +2491,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -2366,7 +2499,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -2374,7 +2507,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>307</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -2382,7 +2515,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -2390,7 +2523,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -2398,7 +2531,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -2406,7 +2539,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>311</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -2414,7 +2547,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -2422,7 +2555,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -2430,7 +2563,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -2438,7 +2571,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -2446,7 +2579,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -2454,7 +2587,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -2462,7 +2595,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>318</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -2470,7 +2603,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -2478,7 +2611,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -2486,7 +2619,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -2494,7 +2627,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -2502,15 +2635,15 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>324</v>
+      <c r="B94" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -2518,7 +2651,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -2526,7 +2659,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -2534,7 +2667,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -2542,7 +2675,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -2550,7 +2683,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -2558,7 +2691,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -2566,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -2574,7 +2707,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -2582,7 +2715,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -2590,7 +2723,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -2598,7 +2731,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -2606,7 +2739,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -2614,7 +2747,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -2622,7 +2755,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -2630,7 +2763,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -2638,7 +2771,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -2646,7 +2779,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -2654,7 +2787,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -2662,7 +2795,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -2670,7 +2803,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -2678,7 +2811,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -2686,7 +2819,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -2694,7 +2827,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -2702,7 +2835,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -2710,7 +2843,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -2718,7 +2851,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -2726,7 +2859,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -2734,7 +2867,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -2742,7 +2875,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -2750,7 +2883,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -2758,7 +2891,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -2766,7 +2899,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -2774,7 +2907,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -2782,7 +2915,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -2790,7 +2923,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -2798,7 +2931,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -2806,7 +2939,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -2814,7 +2947,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -2822,7 +2955,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -2830,7 +2963,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -2838,7 +2971,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>365</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -2846,7 +2979,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -2854,7 +2987,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -2862,7 +2995,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -2870,7 +3003,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -2878,7 +3011,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -2886,7 +3019,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>371</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -2894,7 +3027,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>372</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -2902,7 +3035,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>373</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -2910,7 +3043,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -2918,7 +3051,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -2926,7 +3059,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -2934,7 +3067,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -2942,7 +3075,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -2950,7 +3083,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -2958,7 +3091,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -2966,7 +3099,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -2974,7 +3107,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -2982,7 +3115,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -2990,7 +3123,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -2998,7 +3131,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -3006,7 +3139,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -3014,7 +3147,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -3022,7 +3155,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -3030,7 +3163,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -3038,7 +3171,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -3046,7 +3179,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
@@ -3054,7 +3187,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
@@ -3062,7 +3195,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
@@ -3070,7 +3203,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
@@ -3078,7 +3211,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
@@ -3086,7 +3219,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
@@ -3094,7 +3227,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -3102,7 +3235,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
@@ -3110,7 +3243,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -3118,7 +3251,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
@@ -3126,7 +3259,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
@@ -3134,7 +3267,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -3142,7 +3275,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -3150,7 +3283,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -3158,7 +3291,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -3166,7 +3299,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -3174,7 +3307,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -3182,7 +3315,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
@@ -3190,7 +3323,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
@@ -3198,7 +3331,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -3206,7 +3339,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>411</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -3214,7 +3347,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
@@ -3222,7 +3355,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
@@ -3230,7 +3363,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
@@ -3238,7 +3371,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
@@ -3246,7 +3379,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
@@ -3254,7 +3387,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>417</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
@@ -3262,7 +3395,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
@@ -3270,7 +3403,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
@@ -3278,7 +3411,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
@@ -3286,7 +3419,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
@@ -3294,7 +3427,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
@@ -3302,7 +3435,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
@@ -3310,7 +3443,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
@@ -3318,7 +3451,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
@@ -3326,7 +3459,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
@@ -3334,7 +3467,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
@@ -3342,7 +3475,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
@@ -3350,7 +3483,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -3358,7 +3491,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
@@ -3366,7 +3499,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
@@ -3374,7 +3507,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>432</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
@@ -3390,7 +3523,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>434</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
@@ -3398,7 +3531,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
@@ -3406,7 +3539,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
@@ -3414,7 +3547,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
@@ -3422,7 +3555,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -3430,7 +3563,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -3438,7 +3571,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
@@ -3446,7 +3579,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
@@ -3454,7 +3587,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
@@ -3462,7 +3595,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
@@ -3470,7 +3603,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -3478,7 +3611,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
@@ -3486,7 +3619,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
@@ -3494,7 +3627,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -3502,7 +3635,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
@@ -3510,7 +3643,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
@@ -3518,7 +3651,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
@@ -3526,7 +3659,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>451</v>
+        <v>325</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
@@ -3534,7 +3667,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
@@ -3542,7 +3675,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>453</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -3550,7 +3683,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>454</v>
+        <v>327</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
@@ -3558,7 +3691,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>455</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
@@ -3566,7 +3699,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
@@ -3574,7 +3707,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -3582,7 +3715,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
@@ -3590,7 +3723,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
@@ -3598,7 +3731,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
@@ -3606,11 +3739,12 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>